--- a/versiones.xlsx
+++ b/versiones.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Fecha</t>
   </si>
@@ -33,6 +33,9 @@
     <t>if (elemento.ancho) {
 div.style.width = elemento.ancho + "%";
 }</t>
+  </si>
+  <si>
+    <t>Se crea una propiedad "opacidad" para el objeto texto.</t>
   </si>
 </sst>
 </file>
@@ -76,7 +79,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -89,6 +92,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,14 +450,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>20170110</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>20170104</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
